--- a/pro/database/seeds/Catalogo/RolesPermisos.xlsx
+++ b/pro/database/seeds/Catalogo/RolesPermisos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Index</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Crear</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>persons.index</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -452,13 +461,13 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -652,14 +661,30 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N7">
         <v>6</v>
       </c>
@@ -668,14 +693,25 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="N8">
         <v>7</v>
       </c>
@@ -684,7 +720,15 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -692,6 +736,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="N9">
         <v>8</v>
       </c>
@@ -700,7 +745,15 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -708,9 +761,18 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -718,6 +780,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
